--- a/data/outputs/social_change_gender.xlsx
+++ b/data/outputs/social_change_gender.xlsx
@@ -492,25 +492,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.521564245225434</v>
+        <v>6.521787417521394</v>
       </c>
       <c r="D2" t="n">
-        <v>5.761470064013257</v>
+        <v>5.761630320642751</v>
       </c>
       <c r="E2" t="n">
-        <v>3.372514197259457</v>
+        <v>3.372639968641797</v>
       </c>
       <c r="F2" t="n">
-        <v>3.275769444282466</v>
+        <v>3.275830911621774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1165508998502403</v>
+        <v>0.1165565585343076</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02868624038873021</v>
+        <v>0.02870423701318167</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07261857011948523</v>
+        <v>0.07263039777374464</v>
       </c>
     </row>
     <row r="3">
@@ -525,25 +525,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.605226282818718</v>
+        <v>6.60491878740054</v>
       </c>
       <c r="D3" t="n">
-        <v>6.047432500241606</v>
+        <v>6.047887635478877</v>
       </c>
       <c r="E3" t="n">
-        <v>3.411180006744962</v>
+        <v>3.411126454922075</v>
       </c>
       <c r="F3" t="n">
-        <v>3.472393326030125</v>
+        <v>3.472572439725725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08444733892433411</v>
+        <v>0.08433580636665036</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.01794491031376958</v>
+        <v>-0.018013399859447</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03325121430528226</v>
+        <v>0.03316120325360168</v>
       </c>
     </row>
     <row r="4">
@@ -558,25 +558,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.700789375858479</v>
+        <v>6.700221374984627</v>
       </c>
       <c r="D4" t="n">
-        <v>5.729861256959433</v>
+        <v>5.730373413157952</v>
       </c>
       <c r="E4" t="n">
-        <v>3.642743142268592</v>
+        <v>3.642971344238101</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2773132987154</v>
+        <v>3.277426967028645</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1448975731720644</v>
+        <v>0.144748644492198</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1003172140557825</v>
+        <v>0.100342369639448</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1226073936139234</v>
+        <v>0.122545507065823</v>
       </c>
     </row>
     <row r="5">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.833440742373761</v>
+        <v>6.832898351648351</v>
       </c>
       <c r="D5" t="n">
-        <v>5.767887117795277</v>
+        <v>5.767998521302485</v>
       </c>
       <c r="E5" t="n">
-        <v>3.569903452854699</v>
+        <v>3.56978021978022</v>
       </c>
       <c r="F5" t="n">
-        <v>3.316798733450448</v>
+        <v>3.317088198145467</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1559322257630844</v>
+        <v>0.1558489202592882</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07089959791541528</v>
+        <v>0.07078643672083271</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1134159118392498</v>
+        <v>0.1133176784900604</v>
       </c>
     </row>
     <row r="6">
@@ -624,25 +624,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.09649125175602</v>
+        <v>7.097294731846227</v>
       </c>
       <c r="D6" t="n">
-        <v>6.348704464380791</v>
+        <v>6.34849681808207</v>
       </c>
       <c r="E6" t="n">
-        <v>3.563694472426861</v>
+        <v>3.563676633444075</v>
       </c>
       <c r="F6" t="n">
-        <v>3.248880631734393</v>
+        <v>3.248694316436251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1053741575726158</v>
+        <v>0.1055046946837687</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08833917809965362</v>
+        <v>0.08838689628901951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09685666783613472</v>
+        <v>0.09694579548639412</v>
       </c>
     </row>
     <row r="7">
@@ -657,25 +657,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.236268175452507</v>
+        <v>7.235743924125667</v>
       </c>
       <c r="D7" t="n">
-        <v>6.697861501650436</v>
+        <v>6.69777331995988</v>
       </c>
       <c r="E7" t="n">
-        <v>3.569650110708108</v>
+        <v>3.569650266745702</v>
       </c>
       <c r="F7" t="n">
-        <v>3.428294504024464</v>
+        <v>3.428184553660983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07440391383344525</v>
+        <v>0.07434903857944269</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03959928908987764</v>
+        <v>0.03963013250978441</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05700160146166144</v>
+        <v>0.05698958554461355</v>
       </c>
     </row>
     <row r="8">
@@ -690,25 +690,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.676326666138309</v>
+        <v>6.675514596324705</v>
       </c>
       <c r="D8" t="n">
-        <v>5.909370861044525</v>
+        <v>5.90926731348277</v>
       </c>
       <c r="E8" t="n">
-        <v>3.710885743544987</v>
+        <v>3.710722366315324</v>
       </c>
       <c r="F8" t="n">
-        <v>3.454450056582488</v>
+        <v>3.454499832719973</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1148769141246054</v>
+        <v>0.114784751315472</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06910363311739336</v>
+        <v>0.06904923308767377</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0919902736209994</v>
+        <v>0.09191699220157289</v>
       </c>
     </row>
     <row r="9">
@@ -723,25 +723,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.792995453104352</v>
+        <v>6.79278678812116</v>
       </c>
       <c r="D9" t="n">
-        <v>6.213849455127096</v>
+        <v>6.21369301690285</v>
       </c>
       <c r="E9" t="n">
-        <v>3.483822109569146</v>
+        <v>3.484114641190847</v>
       </c>
       <c r="F9" t="n">
-        <v>3.635919842858289</v>
+        <v>3.635786238688748</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0852563500116271</v>
+        <v>0.08525128040688636</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04365829497188475</v>
+        <v>-0.04353232115406526</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02079902751987118</v>
+        <v>0.02085947962641055</v>
       </c>
     </row>
     <row r="10">
@@ -756,25 +756,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.779010192944627</v>
+        <v>6.261537038749655</v>
       </c>
       <c r="D10" t="n">
-        <v>5.146819690736973</v>
+        <v>5.345791420973523</v>
       </c>
       <c r="E10" t="n">
-        <v>3.233349822892229</v>
+        <v>3.531674835845741</v>
       </c>
       <c r="F10" t="n">
-        <v>3.067921639368396</v>
+        <v>3.136547577754654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1093942528392615</v>
+        <v>0.1462493333679927</v>
       </c>
       <c r="H10" t="n">
-        <v>0.051163094804217</v>
+        <v>0.111880984648029</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08027867382173923</v>
+        <v>0.1290651590080108</v>
       </c>
     </row>
     <row r="11">
@@ -789,25 +789,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.213803002037185</v>
+        <v>6.558534326910357</v>
       </c>
       <c r="D11" t="n">
-        <v>4.998987447100642</v>
+        <v>5.157715535452446</v>
       </c>
       <c r="E11" t="n">
-        <v>3.60076735571365</v>
+        <v>3.668812557872922</v>
       </c>
       <c r="F11" t="n">
-        <v>3.073788410461572</v>
+        <v>3.1687253025822</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1955027467942365</v>
+        <v>0.2135871707967136</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1463518448132659</v>
+        <v>0.1363076601494895</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1709272958037512</v>
+        <v>0.1749474154731016</v>
       </c>
     </row>
     <row r="12">
@@ -822,25 +822,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.567955152561614</v>
+        <v>8.643785310734462</v>
       </c>
       <c r="D12" t="n">
-        <v>7.536302399381981</v>
+        <v>7.614626129827443</v>
       </c>
       <c r="E12" t="n">
-        <v>4.001691786114394</v>
+        <v>4.005861581920904</v>
       </c>
       <c r="F12" t="n">
-        <v>3.484866841354186</v>
+        <v>3.610129644846161</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1204082811837774</v>
+        <v>0.119063482480174</v>
       </c>
       <c r="H12" t="n">
-        <v>0.129151611964109</v>
+        <v>0.09878822045692853</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1247799465739432</v>
+        <v>0.1089258514685513</v>
       </c>
     </row>
     <row r="13">
@@ -855,25 +855,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.549729839937882</v>
+        <v>8.509915903100287</v>
       </c>
       <c r="D13" t="n">
-        <v>7.564689949480389</v>
+        <v>7.29973150256602</v>
       </c>
       <c r="E13" t="n">
-        <v>3.977395765913156</v>
+        <v>3.941320446843229</v>
       </c>
       <c r="F13" t="n">
-        <v>3.585471368260598</v>
+        <v>3.590575400197124</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1152129843747963</v>
+        <v>0.1422087379375135</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09853794309618516</v>
+        <v>0.08899176085188182</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1068754637354907</v>
+        <v>0.1156002493946976</v>
       </c>
     </row>
     <row r="14">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6.455081113895623</v>
+        <v>6.455079374309471</v>
       </c>
       <c r="D14" t="n">
-        <v>5.807455421064545</v>
+        <v>5.807149397222647</v>
       </c>
       <c r="E14" t="n">
-        <v>3.500662083918375</v>
+        <v>3.500785020643135</v>
       </c>
       <c r="F14" t="n">
-        <v>3.287509276976692</v>
+        <v>3.287120402868915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1003280487733852</v>
+        <v>0.1003752145427548</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06088928375031712</v>
+        <v>0.06103334438256</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08060866626185115</v>
+        <v>0.08070427946265737</v>
       </c>
     </row>
     <row r="15">
@@ -921,25 +921,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.145306521213823</v>
+        <v>7.145712925817639</v>
       </c>
       <c r="D15" t="n">
-        <v>6.154646224696331</v>
+        <v>6.154053962786612</v>
       </c>
       <c r="E15" t="n">
-        <v>3.726565397779884</v>
+        <v>3.726660773781193</v>
       </c>
       <c r="F15" t="n">
-        <v>3.4873280690636</v>
+        <v>3.487285989261473</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1386448983785795</v>
+        <v>0.1387767705372179</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06419780768071594</v>
+        <v>0.06423304911566782</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1014213530296477</v>
+        <v>0.1015049098264429</v>
       </c>
     </row>
     <row r="16">
@@ -1020,25 +1020,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.421182536966538</v>
+        <v>7.420879842416284</v>
       </c>
       <c r="D18" t="n">
-        <v>6.760062984141608</v>
+        <v>6.760390227056895</v>
       </c>
       <c r="E18" t="n">
-        <v>3.398227765577624</v>
+        <v>3.397898883782009</v>
       </c>
       <c r="F18" t="n">
-        <v>3.263810140781795</v>
+        <v>3.264111197444532</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0890854725014172</v>
+        <v>0.08900421909328868</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03955521350199483</v>
+        <v>0.03937365145738707</v>
       </c>
       <c r="I18" t="n">
-        <v>0.06432034300170601</v>
+        <v>0.06418893527533787</v>
       </c>
     </row>
     <row r="19">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.520724410901106</v>
+        <v>7.520622469635626</v>
       </c>
       <c r="D19" t="n">
-        <v>7.008756865750705</v>
+        <v>7.008910797231965</v>
       </c>
       <c r="E19" t="n">
-        <v>3.549696256703419</v>
+        <v>3.54946862348178</v>
       </c>
       <c r="F19" t="n">
-        <v>3.414471435854502</v>
+        <v>3.414389989572471</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0680742329034577</v>
+        <v>0.06804113282772632</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03809475827503612</v>
+        <v>0.03805601576970889</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05308449558924691</v>
+        <v>0.05304857429871761</v>
       </c>
     </row>
     <row r="20">
@@ -1086,25 +1086,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.946926644735771</v>
+        <v>6.947195377104716</v>
       </c>
       <c r="D20" t="n">
-        <v>5.950336547716327</v>
+        <v>5.950608787718371</v>
       </c>
       <c r="E20" t="n">
-        <v>3.154525967499294</v>
+        <v>3.154528245491682</v>
       </c>
       <c r="F20" t="n">
-        <v>2.95865267130376</v>
+        <v>2.958814187400742</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1434576969046648</v>
+        <v>0.1434516427551053</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06209278294539114</v>
+        <v>0.06204225889263982</v>
       </c>
       <c r="I20" t="n">
-        <v>0.102775239925028</v>
+        <v>0.1027469508238726</v>
       </c>
     </row>
     <row r="21">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.256312029869775</v>
+        <v>7.256743054147232</v>
       </c>
       <c r="D21" t="n">
-        <v>6.114307537886009</v>
+        <v>6.114308020412828</v>
       </c>
       <c r="E21" t="n">
-        <v>3.431558369601947</v>
+        <v>3.431825863584127</v>
       </c>
       <c r="F21" t="n">
-        <v>3.194105064853213</v>
+        <v>3.194188437809431</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1573808412982843</v>
+        <v>0.1574308233335479</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06919693013302251</v>
+        <v>0.06924518761173772</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1132888857156534</v>
+        <v>0.1133380054726428</v>
       </c>
     </row>
   </sheetData>
